--- a/SumHoursProjects.xlsx
+++ b/SumHoursProjects.xlsx
@@ -603,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>716.1666666666666</v>
+        <v>716.17</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>399.6666666666666</v>
+        <v>399.67</v>
       </c>
     </row>
     <row r="18">
@@ -759,7 +759,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>439.3333333333334</v>
+        <v>439.33</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>454.5833333333334</v>
+        <v>454.58</v>
       </c>
     </row>
     <row r="27">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>283.1666666666667</v>
+        <v>283.17</v>
       </c>
     </row>
     <row r="31">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.916666666667</v>
+        <v>1352.92</v>
       </c>
     </row>
     <row r="36">
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>1187.216666666667</v>
+        <v>1187.22</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>223.3333333333333</v>
+        <v>223.33</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>359.5833333333334</v>
+        <v>359.58</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>535.2433333333333</v>
+        <v>535.24</v>
       </c>
     </row>
     <row r="41">
@@ -1006,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>727.7533333333333</v>
+        <v>727.75</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>567.0833333333333</v>
+        <v>567.08</v>
       </c>
     </row>
     <row r="46">
@@ -1071,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>314.3666666666667</v>
+        <v>314.37</v>
       </c>
     </row>
     <row r="50">
@@ -1500,7 +1500,7 @@
         <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>190.6666666666667</v>
+        <v>190.67</v>
       </c>
     </row>
     <row r="83">
@@ -1838,7 +1838,7 @@
         <v>23</v>
       </c>
       <c r="C108" t="n">
-        <v>89.91666666666666</v>
+        <v>89.92</v>
       </c>
     </row>
     <row r="109">
